--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H2">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I2">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J2">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>22.23753918436834</v>
+        <v>16.04080844845111</v>
       </c>
       <c r="R2">
-        <v>200.137852659315</v>
+        <v>144.36727603606</v>
       </c>
       <c r="S2">
-        <v>0.01583661729770686</v>
+        <v>0.02008472821624545</v>
       </c>
       <c r="T2">
-        <v>0.02127381593898127</v>
+        <v>0.02328344140881897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H3">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I3">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J3">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>206.5770004725383</v>
+        <v>203.9654021792344</v>
       </c>
       <c r="R3">
-        <v>1859.193004252845</v>
+        <v>1835.68861961311</v>
       </c>
       <c r="S3">
-        <v>0.1471152393198009</v>
+        <v>0.2553854864268195</v>
       </c>
       <c r="T3">
-        <v>0.1976244335690177</v>
+        <v>0.2960584253797361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H4">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I4">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J4">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>6.381275924359999</v>
+        <v>9.734453812842222</v>
       </c>
       <c r="R4">
-        <v>57.43148331923999</v>
+        <v>87.61008431558</v>
       </c>
       <c r="S4">
-        <v>0.004544469774614158</v>
+        <v>0.01218852901291325</v>
       </c>
       <c r="T4">
-        <v>0.00610472626243259</v>
+        <v>0.01412968590246158</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H5">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I5">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J5">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>155.5657527031875</v>
+        <v>121.49820254913</v>
       </c>
       <c r="R5">
-        <v>933.3945162191251</v>
+        <v>728.9892152947799</v>
       </c>
       <c r="S5">
-        <v>0.1107872264896053</v>
+        <v>0.1521281414714011</v>
       </c>
       <c r="T5">
-        <v>0.09921592978366521</v>
+        <v>0.1175708106990765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.406955</v>
+        <v>6.325956666666666</v>
       </c>
       <c r="H6">
-        <v>19.220865</v>
+        <v>18.97787</v>
       </c>
       <c r="I6">
-        <v>0.2800966009992835</v>
+        <v>0.4468357575736242</v>
       </c>
       <c r="J6">
-        <v>0.3266544289500554</v>
+        <v>0.4592138460625664</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>2.54585482489</v>
+        <v>5.629631203887778</v>
       </c>
       <c r="R6">
-        <v>22.91269342401</v>
+        <v>50.66668083499</v>
       </c>
       <c r="S6">
-        <v>0.001813048117556298</v>
+        <v>0.007048872446244978</v>
       </c>
       <c r="T6">
-        <v>0.002435523395958691</v>
+        <v>0.008171482672473208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
         <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J7">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>23.207626105827</v>
+        <v>16.954918495746</v>
       </c>
       <c r="R7">
-        <v>208.868634952443</v>
+        <v>152.594266461714</v>
       </c>
       <c r="S7">
-        <v>0.01652747140675552</v>
+        <v>0.02122928722763555</v>
       </c>
       <c r="T7">
-        <v>0.02220186154874151</v>
+        <v>0.02461028399258279</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
         <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J8">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
         <v>215.588683139901</v>
@@ -948,10 +948,10 @@
         <v>1940.298148259109</v>
       </c>
       <c r="S8">
-        <v>0.1535329714451127</v>
+        <v>0.2699390196746147</v>
       </c>
       <c r="T8">
-        <v>0.206245570861976</v>
+        <v>0.3129297683731781</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
         <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J9">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>6.659651704391998</v>
+        <v>10.289186578578</v>
       </c>
       <c r="R9">
-        <v>59.93686533952799</v>
+        <v>92.602679207202</v>
       </c>
       <c r="S9">
-        <v>0.004742717011269566</v>
+        <v>0.01288311101407947</v>
       </c>
       <c r="T9">
-        <v>0.006371037883389012</v>
+        <v>0.01493488770323543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
         <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J10">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>162.3521286988875</v>
+        <v>128.421963781947</v>
       </c>
       <c r="R10">
-        <v>974.112772193325</v>
+        <v>770.531782691682</v>
       </c>
       <c r="S10">
-        <v>0.1156201910811996</v>
+        <v>0.1607973967051505</v>
       </c>
       <c r="T10">
-        <v>0.1035441099426979</v>
+        <v>0.1242707634897358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.686450999999999</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
         <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.2923154911886005</v>
+        <v>0.4722993778644153</v>
       </c>
       <c r="J11">
-        <v>0.3409043505233806</v>
+        <v>0.4853828506917099</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>2.656914796457999</v>
+        <v>5.950444363809001</v>
       </c>
       <c r="R11">
-        <v>23.91223316812199</v>
+        <v>53.553999274281</v>
       </c>
       <c r="S11">
-        <v>0.001892140244263059</v>
+        <v>0.007450563242935143</v>
       </c>
       <c r="T11">
-        <v>0.002541770286576288</v>
+        <v>0.008637147132977698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H12">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I12">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J12">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N12">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O12">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P12">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q12">
-        <v>33.94722685248983</v>
+        <v>2.902940914335</v>
       </c>
       <c r="R12">
-        <v>203.683361114939</v>
+        <v>17.41764548601</v>
       </c>
       <c r="S12">
-        <v>0.02417575234040404</v>
+        <v>0.003634778102338565</v>
       </c>
       <c r="T12">
-        <v>0.02165068864593212</v>
+        <v>0.002809104246393053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H13">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I13">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J13">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O13">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P13">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q13">
-        <v>315.3548708517928</v>
+        <v>36.9120741636975</v>
       </c>
       <c r="R13">
-        <v>1892.129225110757</v>
+        <v>221.472444982185</v>
       </c>
       <c r="S13">
-        <v>0.2245821518847826</v>
+        <v>0.04621768159991625</v>
       </c>
       <c r="T13">
-        <v>0.2011254159716299</v>
+        <v>0.03571890277352442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H14">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I14">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J14">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N14">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O14">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P14">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q14">
-        <v>9.741483516523999</v>
+        <v>1.761665837655</v>
       </c>
       <c r="R14">
-        <v>58.448901099144</v>
+        <v>10.56999502593</v>
       </c>
       <c r="S14">
-        <v>0.006937464846450019</v>
+        <v>0.002205785305076789</v>
       </c>
       <c r="T14">
-        <v>0.006212873513415485</v>
+        <v>0.001704720533871381</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H15">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I15">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J15">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N15">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O15">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P15">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q15">
-        <v>237.4824774319312</v>
+        <v>21.9878009472825</v>
       </c>
       <c r="R15">
-        <v>949.929909727725</v>
+        <v>87.95120378913001</v>
       </c>
       <c r="S15">
-        <v>0.1691247884408227</v>
+        <v>0.02753096937216501</v>
       </c>
       <c r="T15">
-        <v>0.1009735728946832</v>
+        <v>0.01418470138445921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.7806845</v>
+        <v>1.1448225</v>
       </c>
       <c r="H16">
-        <v>19.561369</v>
+        <v>2.289645</v>
       </c>
       <c r="I16">
-        <v>0.4275879078121161</v>
+        <v>0.08086486456196039</v>
       </c>
       <c r="J16">
-        <v>0.332441220526564</v>
+        <v>0.05540330324572383</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N16">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O16">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P16">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q16">
-        <v>3.886433231550999</v>
+        <v>1.0188069265275</v>
       </c>
       <c r="R16">
-        <v>23.31859938930599</v>
+        <v>6.112841559165</v>
       </c>
       <c r="S16">
-        <v>0.002767750299656711</v>
+        <v>0.001275650182463779</v>
       </c>
       <c r="T16">
-        <v>0.002478669500903371</v>
+        <v>0.0009858743074757557</v>
       </c>
     </row>
   </sheetData>
